--- a/va_facility_data_2025-02-20/Spirit Lake VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Spirit%20Lake%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Spirit Lake VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Spirit%20Lake%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R1a06f1b1233d423792f7f8bada0d0cb8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R34a145a8cd7e4933b731eb88450e4622"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8a97cd6737d44977a21f9702555c815c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5ed245043eb54f1daa2f71d8df415d97"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra6f8b9269abf49498747a85be072c493"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf3f003b841f943e297bf96dd7de47822"/>
   </x:sheets>
 </x:workbook>
 </file>
